--- a/data/name_styles/name_style_list.xlsx
+++ b/data/name_styles/name_style_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names_v2/data/name_styles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34332D7-31BF-9941-92AE-3F252A70DC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8EF7D-449B-FD4B-B8C8-13BAA853B9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">name_styles!$B$1:$B$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">name_styles!$D$1:$D$268</definedName>
     <definedName name="algorithms_combined_2x2">[1]algorithms_combined!$B$2:$AA$22</definedName>
     <definedName name="algorithms_combined_3x3">[1]algorithms_combined!$AE$2:$CJ$91</definedName>
     <definedName name="three_word_algo">[1]algorithm_types_POS!$C$11:$G$33</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="31">
   <si>
     <t>keyword_type_1</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>no_cut_5</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -18639,10 +18642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMM268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -18683,7 +18687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -18702,7 +18706,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -18721,7 +18725,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -18740,7 +18744,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -18757,7 +18761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -18774,7 +18778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -18791,7 +18795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -18808,7 +18812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -18825,7 +18829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -18842,7 +18846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -18859,7 +18863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -18910,7 +18914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -18927,7 +18931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -18944,7 +18948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -18961,7 +18965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -18978,7 +18982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -19012,7 +19016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -19029,7 +19033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -19046,7 +19050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -19063,7 +19067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -19080,7 +19084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -19097,7 +19101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -19114,7 +19118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -19131,7 +19135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -19148,7 +19152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -19165,7 +19169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -19182,7 +19186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -19199,7 +19203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -19216,7 +19220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -19250,7 +19254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -19267,7 +19271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -19284,7 +19288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -19301,7 +19305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -19318,7 +19322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -19335,7 +19339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -19352,7 +19356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -19369,7 +19373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -19386,7 +19390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -19403,7 +19407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -19420,7 +19424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -19437,7 +19441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -19454,7 +19458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -19471,7 +19475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -19488,7 +19492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -19505,7 +19509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -19522,7 +19526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -19539,7 +19543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -19556,7 +19560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -19573,7 +19577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -19590,7 +19594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -19607,7 +19611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -19624,7 +19628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -19641,7 +19645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -19658,7 +19662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -19675,7 +19679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -19709,7 +19713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -19726,7 +19730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -19743,7 +19747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -19760,7 +19764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -19777,7 +19781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -19794,7 +19798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -19811,7 +19815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -19828,7 +19832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -19845,7 +19849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -19862,7 +19866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -19879,7 +19883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -19896,7 +19900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -19913,7 +19917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -19930,7 +19934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -19947,7 +19951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -19964,7 +19968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -19981,7 +19985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -19998,7 +20002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -20015,7 +20019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -20031,8 +20035,11 @@
       <c r="E80" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H80" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -20048,8 +20055,11 @@
       <c r="E81" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H81" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -20065,8 +20075,11 @@
       <c r="E82" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H82" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -20082,8 +20095,11 @@
       <c r="E83" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H83" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -20099,8 +20115,11 @@
       <c r="E84" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H84" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -20116,8 +20135,11 @@
       <c r="E85" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H85" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -20133,8 +20155,11 @@
       <c r="E86" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H86" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -20151,7 +20176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -20168,7 +20193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -20185,7 +20210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -20202,7 +20227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -20219,7 +20244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -20236,7 +20261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -20253,7 +20278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -20270,7 +20295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -20287,7 +20312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -20304,7 +20329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -20321,7 +20346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -20338,7 +20363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -20355,7 +20380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -20372,7 +20397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -20389,7 +20414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -20406,7 +20431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -20423,7 +20448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -20440,7 +20465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -20457,7 +20482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -20474,7 +20499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -20491,7 +20516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -20508,7 +20533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -20525,7 +20550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -20542,7 +20567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -20559,7 +20584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -20576,7 +20601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -20593,7 +20618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -20610,7 +20635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -20627,7 +20652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -20644,7 +20669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -20661,7 +20686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -20678,7 +20703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -20695,7 +20720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -20712,7 +20737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -20729,7 +20754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -20746,7 +20771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -20763,7 +20788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -20780,7 +20805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -20797,7 +20822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -20814,7 +20839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -20831,7 +20856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -20848,7 +20873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -20865,7 +20890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -20882,7 +20907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -20899,7 +20924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -20916,7 +20941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -20933,7 +20958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -20950,7 +20975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -20967,7 +20992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -20984,7 +21009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -21001,7 +21026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -21018,7 +21043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -21035,7 +21060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -21052,7 +21077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -21069,7 +21094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -21086,7 +21111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -21103,7 +21128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -21120,7 +21145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -21137,7 +21162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -21154,7 +21179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -21171,7 +21196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -21188,7 +21213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -21205,7 +21230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -21222,7 +21247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -21239,7 +21264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -21256,7 +21281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -21273,7 +21298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -21290,7 +21315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -21307,7 +21332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -21324,7 +21349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -21341,7 +21366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -21358,7 +21383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -21375,7 +21400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -21392,7 +21417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -21409,7 +21434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -21426,7 +21451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -21443,7 +21468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -21460,7 +21485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -21476,8 +21501,11 @@
       <c r="E165" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H165" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -21493,8 +21521,11 @@
       <c r="E166" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H166" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -21510,8 +21541,11 @@
       <c r="E167" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H167" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -21527,8 +21561,11 @@
       <c r="E168" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H168" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -21544,8 +21581,11 @@
       <c r="E169" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H169" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -21561,8 +21601,11 @@
       <c r="E170" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H170" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -21578,8 +21621,11 @@
       <c r="E171" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H171" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -21596,7 +21642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -21613,7 +21659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -21630,7 +21676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -21647,7 +21693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -21664,7 +21710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -21681,7 +21727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -21698,7 +21744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -21715,7 +21761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -21732,7 +21778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -21749,7 +21795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -21766,7 +21812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -21783,7 +21829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -21800,7 +21846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -21817,7 +21863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -21834,7 +21880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -21851,7 +21897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -21868,7 +21914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -21885,7 +21931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -21902,7 +21948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -21919,7 +21965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -21936,7 +21982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -21953,7 +21999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -21970,7 +22016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -21987,7 +22033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -22004,7 +22050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -22021,7 +22067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -22038,7 +22084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -22055,7 +22101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -22072,7 +22118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -22089,7 +22135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -22106,7 +22152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -22123,7 +22169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -22140,7 +22186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -22157,7 +22203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -22174,7 +22220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -22191,7 +22237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -22208,7 +22254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -22225,7 +22271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -22242,7 +22288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -22259,7 +22305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -22276,7 +22322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -22293,7 +22339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -22310,7 +22356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -22327,7 +22373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -22344,7 +22390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -22361,7 +22407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -22378,7 +22424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -22395,7 +22441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -22412,7 +22458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -22429,7 +22475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -22446,7 +22492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -22463,7 +22509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -22480,7 +22526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -22497,7 +22543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -22514,7 +22560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -22531,7 +22577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -22548,7 +22594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -22565,7 +22611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -22582,7 +22628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -22599,7 +22645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -22616,7 +22662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -22633,7 +22679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -22650,7 +22696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -22667,7 +22713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -22684,7 +22730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -22701,7 +22747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -22718,7 +22764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -22735,7 +22781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -22752,7 +22798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -22769,7 +22815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -22786,7 +22832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -22803,7 +22849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -22820,7 +22866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -22837,7 +22883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -22854,7 +22900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -22871,7 +22917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -22888,7 +22934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -22905,7 +22951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -22921,8 +22967,11 @@
       <c r="E250" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H250" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -22938,8 +22987,11 @@
       <c r="E251" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H251" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -22955,8 +23007,11 @@
       <c r="E252" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H252" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -22972,8 +23027,11 @@
       <c r="E253" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H253" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -22989,8 +23047,11 @@
       <c r="E254" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H254" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -23006,8 +23067,11 @@
       <c r="E255" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H255" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -23023,8 +23087,11 @@
       <c r="E256" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H256" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -23040,8 +23107,11 @@
       <c r="E257" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H257" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -23057,8 +23127,11 @@
       <c r="E258" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H258" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -23074,8 +23147,11 @@
       <c r="E259" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H259" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -23091,8 +23167,11 @@
       <c r="E260" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H260" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -23108,8 +23187,11 @@
       <c r="E261" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H261" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -23125,8 +23207,11 @@
       <c r="E262" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H262" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -23142,8 +23227,11 @@
       <c r="E263" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H263" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -23159,8 +23247,11 @@
       <c r="E264" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H264" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -23176,8 +23267,11 @@
       <c r="E265" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H265" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -23193,8 +23287,11 @@
       <c r="E266" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H266" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -23210,8 +23307,11 @@
       <c r="E267" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H267" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -23227,9 +23327,18 @@
       <c r="E268" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H268" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B268" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D268" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="suff"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A1:H1 F2:H12 A269:H1048576 B13:H268">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>

--- a/data/name_styles/name_style_list.xlsx
+++ b/data/name_styles/name_style_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names_v2/data/name_styles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8EF7D-449B-FD4B-B8C8-13BAA853B9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56CD544-9377-B648-848B-70235865BA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">name_styles!$D$1:$D$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">name_styles!$B$1:$G$268</definedName>
     <definedName name="algorithms_combined_2x2">[1]algorithms_combined!$B$2:$AA$22</definedName>
     <definedName name="algorithms_combined_3x3">[1]algorithms_combined!$AE$2:$CJ$91</definedName>
     <definedName name="three_word_algo">[1]algorithm_types_POS!$C$11:$G$33</definedName>
@@ -361,9 +361,9 @@
       <sheetName val="Algorithms_test"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="C3" t="str">
@@ -18339,7 +18339,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20019,7 +20019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -23071,7 +23071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -23111,7 +23111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -23271,7 +23271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -23332,14 +23332,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D268" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B1:G268" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="suff"/>
+        <filter val="pref"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A1:H1 F2:H12 A269:H1048576 B13:H268">
+  <conditionalFormatting sqref="A1:H1 A269:H1048576 F2:H5 B13:G20 F6:G12 H2:H20 B21:H268">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -23359,7 +23359,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A5:E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
